--- a/biology/Botanique/Melica_uniflora/Melica_uniflora.xlsx
+++ b/biology/Botanique/Melica_uniflora/Melica_uniflora.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melica uniflora, la mélique à une fleur, ou mélique uniflore, est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Pooideae, originaire d'Eurasie et d'Afrique du Nord.
-Ce sont des plantes herbacées vivaces, de 30 à 50 cm de haut, parfois cultivées comme plantes ornementales[2].
+Ce sont des plantes herbacées vivaces, de 30 à 50 cm de haut, parfois cultivées comme plantes ornementales.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tige grêle, lisse et feuillée. Les feuilles sont planes, vertes et sont opposées au ligule.
 </t>
@@ -543,9 +557,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (27 mars 2017)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (27 mars 2017) :
 Dalucum lobelianum Bubani, nom. superfl.,
 Melica lobelii Vill.,
 Melica nutans Lam., nom. illeg.,
